--- a/현서 엑셀.xlsx
+++ b/현서 엑셀.xlsx
@@ -4,28 +4,28 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="12570" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="12570"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="제1작업" sheetId="1" r:id="rId1"/>
+    <sheet name="제2작업" sheetId="2" r:id="rId2"/>
+    <sheet name="제3작업" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$B$2:$H$10</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="1">Sheet2!$B$14:$C$16</definedName>
-    <definedName name="_xlnm.Extract" localSheetId="1">Sheet2!$B$18:$E$18</definedName>
-    <definedName name="구분">Sheet1!$D$5:$D$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">제2작업!$B$2:$H$10</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="1">제2작업!$B$14:$C$16</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="1">제2작업!$B$18:$E$18</definedName>
+    <definedName name="구분">제1작업!$D$5:$D$12</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId4"/>
+    <pivotCache cacheId="11" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="55">
   <si>
     <t>게임코드</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -100,58 +100,34 @@
   </si>
   <si>
     <t>놀이공원이야기</t>
-  </si>
-  <si>
-    <t>놀이공원이야기</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>물의순환</t>
-  </si>
-  <si>
-    <t>물의순환</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>뚜비의도넛가게</t>
-  </si>
-  <si>
-    <t>뚜비의도넛가게</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>보트경주</t>
-  </si>
-  <si>
-    <t>보트경주</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>피그모험</t>
-  </si>
-  <si>
-    <t>피그모험</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>톰의브리지</t>
-  </si>
-  <si>
-    <t>톰의브리지</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>양이의철도여행</t>
-  </si>
-  <si>
-    <t>양이의철도여행</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>드래곤키우기</t>
-  </si>
-  <si>
-    <t>드래곤키우기</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -230,64 +206,32 @@
     <t>총합계</t>
   </si>
   <si>
-    <t>열 레이블</t>
-  </si>
-  <si>
-    <t>놀이공원이야기 개수</t>
-  </si>
-  <si>
-    <t>드래곤키우기 개수</t>
-  </si>
-  <si>
-    <t>뚜비의도넛가게 개수</t>
-  </si>
-  <si>
-    <t>물의순환 개수</t>
-  </si>
-  <si>
-    <t>보트경주 개수</t>
-  </si>
-  <si>
-    <t>양이의철도여행 개수</t>
-  </si>
-  <si>
-    <t>톰의브리지 개수</t>
-  </si>
-  <si>
-    <t>피그모험 개수</t>
-  </si>
-  <si>
-    <t>롤플레잉 요약</t>
-  </si>
-  <si>
-    <t>시뮬레이션 요약</t>
-  </si>
-  <si>
-    <t>어드벤처 요약</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2,400  평균</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2,500  평균</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4,000  평균</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4,300  평균</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5,000  평균</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5,800  평균</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6,600  평균</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8,800  평균</t>
+    <t>2018년</t>
+  </si>
+  <si>
+    <t>2019년</t>
+  </si>
+  <si>
+    <t>2020년</t>
+  </si>
+  <si>
+    <t>2021년</t>
+  </si>
+  <si>
+    <t>개수 : 게임명</t>
+  </si>
+  <si>
+    <t>**</t>
+  </si>
+  <si>
+    <t>구분</t>
+  </si>
+  <si>
+    <t>평균 : 판매금액(단위:원)</t>
+  </si>
+  <si>
+    <t>게임코드</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -296,7 +240,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="#,##0&quot;MB&quot;"/>
+    <numFmt numFmtId="176" formatCode="#,##0&quot;MB&quot;"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -696,7 +640,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -724,178 +668,157 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
     <dxf>
       <font>
-        <b val="0"/>
+        <b/>
         <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="굴림"/>
-        <scheme val="none"/>
+        <color rgb="FF00B0F0"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1031,18 +954,54 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
-        <color rgb="FF00B0F0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="굴림"/>
+        <scheme val="none"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1188,9 +1147,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Win10" refreshedDate="45306.703394328702" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="8">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Win10" refreshedDate="45307.58449108796" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="8">
   <cacheSource type="worksheet">
-    <worksheetSource ref="B4:H12" sheet="Sheet1"/>
+    <worksheetSource ref="B4:H12" sheet="제1작업"/>
   </cacheSource>
   <cacheFields count="7">
     <cacheField name="게임코드" numFmtId="0">
@@ -1229,21 +1188,23 @@
         <d v="2018-10-15T00:00:00"/>
         <d v="2021-06-24T00:00:00"/>
       </sharedItems>
+      <fieldGroup base="4">
+        <rangePr groupBy="years" startDate="2018-08-14T00:00:00" endDate="2021-11-04T00:00:00"/>
+        <groupItems count="6">
+          <s v="&lt;2018-08-14"/>
+          <s v="2018년"/>
+          <s v="2019년"/>
+          <s v="2020년"/>
+          <s v="2021년"/>
+          <s v="&gt;2021-11-04"/>
+        </groupItems>
+      </fieldGroup>
     </cacheField>
-    <cacheField name="용량" numFmtId="177">
+    <cacheField name="용량" numFmtId="176">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="30" maxValue="123"/>
     </cacheField>
     <cacheField name="판매금액_x000a_(단위:원)" numFmtId="41">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2400" maxValue="8800" count="8">
-        <n v="4000"/>
-        <n v="6600"/>
-        <n v="5000"/>
-        <n v="4300"/>
-        <n v="8800"/>
-        <n v="2500"/>
-        <n v="5800"/>
-        <n v="2400"/>
-      </sharedItems>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2400" maxValue="8800"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -1263,7 +1224,7 @@
     <s v="가상현실체험"/>
     <x v="0"/>
     <n v="59"/>
-    <x v="0"/>
+    <n v="4000"/>
   </r>
   <r>
     <s v="AC-151"/>
@@ -1272,7 +1233,7 @@
     <s v="교육용"/>
     <x v="1"/>
     <n v="61"/>
-    <x v="1"/>
+    <n v="6600"/>
   </r>
   <r>
     <s v="SA-233"/>
@@ -1281,7 +1242,7 @@
     <s v="음식만들기"/>
     <x v="2"/>
     <n v="30"/>
-    <x v="2"/>
+    <n v="5000"/>
   </r>
   <r>
     <s v="RE-323"/>
@@ -1290,7 +1251,7 @@
     <s v="3D그래픽"/>
     <x v="3"/>
     <n v="108"/>
-    <x v="3"/>
+    <n v="4300"/>
   </r>
   <r>
     <s v="RT-342"/>
@@ -1299,7 +1260,7 @@
     <s v="목표달성"/>
     <x v="4"/>
     <n v="73"/>
-    <x v="4"/>
+    <n v="8800"/>
   </r>
   <r>
     <s v="ST-232"/>
@@ -1308,7 +1269,7 @@
     <s v="사고력"/>
     <x v="5"/>
     <n v="123"/>
-    <x v="5"/>
+    <n v="2500"/>
   </r>
   <r>
     <s v="AA-121"/>
@@ -1317,7 +1278,7 @@
     <s v="가상현실체험"/>
     <x v="6"/>
     <n v="44"/>
-    <x v="6"/>
+    <n v="5800"/>
   </r>
   <r>
     <s v="RA-321"/>
@@ -1326,17 +1287,17 @@
     <s v="판타지체험"/>
     <x v="7"/>
     <n v="45"/>
-    <x v="7"/>
+    <n v="2400"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B2:AD14" firstHeaderRow="1" firstDataRow="4" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블1" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" missingCaption="**" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" mergeItem="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" colHeaderCaption="구분">
+  <location ref="B2:H9" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0" countASubtotal="1">
+    <pivotField dataField="1" showAll="0">
       <items count="9">
         <item x="0"/>
         <item x="7"/>
@@ -1346,53 +1307,36 @@
         <item x="6"/>
         <item x="5"/>
         <item x="4"/>
-        <item t="countA"/>
+        <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisCol" showAll="0">
+    <pivotField axis="axisCol" showAll="0" sortType="descending">
       <items count="4">
+        <item x="1"/>
+        <item x="0"/>
         <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" numFmtId="14" showAll="0">
-      <items count="9">
+      <items count="7">
+        <item x="0"/>
         <item x="1"/>
-        <item x="6"/>
+        <item x="2"/>
         <item x="3"/>
-        <item x="2"/>
+        <item x="4"/>
         <item x="5"/>
-        <item x="4"/>
-        <item x="7"/>
-        <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField numFmtId="177" showAll="0"/>
-    <pivotField name="판매금액" axis="axisCol" numFmtId="41" showAll="0" avgSubtotal="1">
-      <items count="9">
-        <item x="7"/>
-        <item x="5"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="6"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item t="avg"/>
-      </items>
-    </pivotField>
+    <pivotField numFmtId="176" showAll="0"/>
+    <pivotField dataField="1" numFmtId="41" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="4"/>
   </rowFields>
-  <rowItems count="9">
-    <i>
-      <x/>
-    </i>
+  <rowItems count="5">
     <i>
       <x v="1"/>
     </i>
@@ -1405,123 +1349,46 @@
     <i>
       <x v="4"/>
     </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
     <i t="grand">
       <x/>
     </i>
   </rowItems>
-  <colFields count="3">
+  <colFields count="2">
     <field x="2"/>
-    <field x="1"/>
-    <field x="6"/>
+    <field x="-2"/>
   </colFields>
-  <colItems count="28">
+  <colItems count="6">
     <i>
       <x/>
-      <x v="1"/>
       <x/>
     </i>
-    <i t="countA" r="1">
+    <i r="1" i="1">
       <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-      <x v="3"/>
-    </i>
-    <i t="countA" r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-      <x v="7"/>
-    </i>
-    <i t="countA" r="1">
-      <x v="7"/>
-    </i>
-    <i t="default">
-      <x/>
     </i>
     <i>
       <x v="1"/>
       <x/>
-      <x v="2"/>
     </i>
-    <i t="countA" r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-      <x v="4"/>
-    </i>
-    <i t="countA" r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-      <x v="1"/>
-    </i>
-    <i t="countA" r="1">
-      <x v="6"/>
-    </i>
-    <i t="default">
+    <i r="1" i="1">
       <x v="1"/>
     </i>
     <i>
       <x v="2"/>
-      <x v="3"/>
-      <x v="6"/>
-    </i>
-    <i t="countA" r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-      <x v="5"/>
-    </i>
-    <i t="countA" r="1">
-      <x v="5"/>
-    </i>
-    <i t="default">
-      <x v="2"/>
-    </i>
-    <i t="avg">
-      <x v="1048832"/>
-      <x v="1048832"/>
       <x/>
     </i>
-    <i t="avg" r="2">
+    <i r="1" i="1">
       <x v="1"/>
     </i>
-    <i t="avg" r="2">
-      <x v="2"/>
-    </i>
-    <i t="avg" r="2">
-      <x v="3"/>
-    </i>
-    <i t="avg" r="2">
-      <x v="4"/>
-    </i>
-    <i t="avg" r="2">
-      <x v="5"/>
-    </i>
-    <i t="avg" r="2">
-      <x v="6"/>
-    </i>
-    <i t="avg" r="2">
-      <x v="7"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
   </colItems>
+  <dataFields count="2">
+    <dataField name="개수 : 게임명" fld="1" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="평균 : 판매금액(단위:원)" fld="6" subtotal="average" baseField="4" baseItem="1"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="0">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -1532,13 +1399,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="B18:E22" totalsRowShown="0" headerRowDxfId="0" tableBorderDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="B18:E22" totalsRowShown="0" headerRowDxfId="8" tableBorderDxfId="7">
   <autoFilter ref="B18:E22"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="게임코드" dataDxfId="5"/>
-    <tableColumn id="2" name="구분" dataDxfId="4"/>
-    <tableColumn id="3" name="출시일" dataDxfId="3"/>
-    <tableColumn id="4" name="판매금액_x000a_(단위:원)" dataDxfId="2" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="1" name="게임코드" dataDxfId="6"/>
+    <tableColumn id="2" name="구분" dataDxfId="5"/>
+    <tableColumn id="3" name="출시일" dataDxfId="4"/>
+    <tableColumn id="4" name="판매금액_x000a_(단위:원)" dataDxfId="3" dataCellStyle="쉼표 [0]"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1833,8 +1700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J14"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:H12"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1856,31 +1723,31 @@
     <row r="2" spans="2:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:10" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="27" t="s">
+      <c r="B4" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="28" t="s">
+      <c r="H4" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="27" t="s">
+      <c r="I4" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="29" t="s">
+      <c r="J4" s="23" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1889,28 +1756,28 @@
         <v>10</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="19">
+        <v>32</v>
+      </c>
+      <c r="F5" s="13">
         <v>44503</v>
       </c>
-      <c r="G5" s="33">
+      <c r="G5" s="27">
         <v>59</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="14">
         <v>4000</v>
       </c>
-      <c r="I5" s="20" t="str">
+      <c r="I5" s="14" t="str">
         <f>CHOOSE(RIGHT(B5,1),"인기작","할인중","가족용")</f>
         <v>인기작</v>
       </c>
-      <c r="J5" s="21" t="str">
+      <c r="J5" s="15" t="str">
         <f>_xlfn.RANK.EQ(H5,$H$5:$H$12,)&amp;"위"</f>
         <v>6위</v>
       </c>
@@ -1920,18 +1787,18 @@
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F6" s="3">
         <v>43326</v>
       </c>
-      <c r="G6" s="34">
+      <c r="G6" s="28">
         <v>61</v>
       </c>
       <c r="H6" s="4">
@@ -1951,18 +1818,18 @@
         <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F7" s="3">
         <v>43655</v>
       </c>
-      <c r="G7" s="34">
+      <c r="G7" s="28">
         <v>30</v>
       </c>
       <c r="H7" s="4">
@@ -1982,18 +1849,18 @@
         <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="F8" s="3">
         <v>43509</v>
       </c>
-      <c r="G8" s="34">
+      <c r="G8" s="28">
         <v>108</v>
       </c>
       <c r="H8" s="4">
@@ -2013,18 +1880,18 @@
         <v>14</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="E9" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F9" s="3">
         <v>44067</v>
       </c>
-      <c r="G9" s="34">
+      <c r="G9" s="28">
         <v>73</v>
       </c>
       <c r="H9" s="4">
@@ -2044,18 +1911,18 @@
         <v>15</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F10" s="3">
         <v>43983</v>
       </c>
-      <c r="G10" s="34">
+      <c r="G10" s="28">
         <v>123</v>
       </c>
       <c r="H10" s="4">
@@ -2075,18 +1942,18 @@
         <v>16</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F11" s="3">
         <v>43388</v>
       </c>
-      <c r="G11" s="34">
+      <c r="G11" s="28">
         <v>44</v>
       </c>
       <c r="H11" s="4">
@@ -2102,75 +1969,78 @@
       </c>
     </row>
     <row r="12" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="23">
+      <c r="C12" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="17">
         <v>44371</v>
       </c>
-      <c r="G12" s="35">
+      <c r="G12" s="29">
         <v>45</v>
       </c>
-      <c r="H12" s="24">
+      <c r="H12" s="18">
         <v>2400</v>
       </c>
-      <c r="I12" s="24" t="str">
+      <c r="I12" s="18" t="str">
         <f t="shared" si="0"/>
         <v>인기작</v>
       </c>
-      <c r="J12" s="25" t="str">
+      <c r="J12" s="19" t="str">
         <f t="shared" si="1"/>
         <v>8위</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="17">
+      <c r="B13" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="12">
         <f>COUNTIF(구분,"롤플레잉")</f>
         <v>3</v>
       </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="36">
+      <c r="F13" s="45"/>
+      <c r="G13" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="30">
         <f>MAX(G5:G12)</f>
         <v>123</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="31" t="s">
+      <c r="B14" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="9">
+        <f>ROUND(DAVERAGE(B4:H12,H4,D4:D5),-1)</f>
+        <v>3830</v>
+      </c>
+      <c r="F14" s="46"/>
+      <c r="G14" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="H14" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I14" s="30" t="s">
+      <c r="I14" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="J14" s="14">
+      <c r="J14" s="11">
         <f>VLOOKUP(H14,B5:H12,7,FALSE)</f>
         <v>4000</v>
       </c>
@@ -2184,7 +2054,7 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="B5:J12">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>$H5&gt;=5000</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2221,25 +2091,25 @@
   <sheetData>
     <row r="1" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="22" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2248,21 +2118,21 @@
         <v>10</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="19">
+        <v>32</v>
+      </c>
+      <c r="F3" s="13">
         <v>44503</v>
       </c>
-      <c r="G3" s="33">
+      <c r="G3" s="27">
         <v>59</v>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="14">
         <v>4000</v>
       </c>
     </row>
@@ -2271,18 +2141,18 @@
         <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F4" s="3">
         <v>43326</v>
       </c>
-      <c r="G4" s="34">
+      <c r="G4" s="28">
         <v>61</v>
       </c>
       <c r="H4" s="4">
@@ -2294,18 +2164,18 @@
         <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F5" s="3">
         <v>43655</v>
       </c>
-      <c r="G5" s="34">
+      <c r="G5" s="28">
         <v>30</v>
       </c>
       <c r="H5" s="4">
@@ -2317,18 +2187,18 @@
         <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="F6" s="3">
         <v>43509</v>
       </c>
-      <c r="G6" s="34">
+      <c r="G6" s="28">
         <v>108</v>
       </c>
       <c r="H6" s="4">
@@ -2340,18 +2210,18 @@
         <v>14</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="E7" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F7" s="3">
         <v>44067</v>
       </c>
-      <c r="G7" s="34">
+      <c r="G7" s="28">
         <v>73</v>
       </c>
       <c r="H7" s="4">
@@ -2363,18 +2233,18 @@
         <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F8" s="3">
         <v>43983</v>
       </c>
-      <c r="G8" s="34">
+      <c r="G8" s="28">
         <v>123</v>
       </c>
       <c r="H8" s="4">
@@ -2386,18 +2256,18 @@
         <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F9" s="3">
         <v>43388</v>
       </c>
-      <c r="G9" s="34">
+      <c r="G9" s="28">
         <v>44</v>
       </c>
       <c r="H9" s="4">
@@ -2405,121 +2275,121 @@
       </c>
     </row>
     <row r="10" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>35</v>
+      <c r="C10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="23">
+        <v>32</v>
+      </c>
+      <c r="F10" s="17">
         <v>44371</v>
       </c>
-      <c r="G10" s="35">
+      <c r="G10" s="29">
         <v>45</v>
       </c>
-      <c r="H10" s="24">
+      <c r="H10" s="18">
         <v>2400</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="2:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="22" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C16" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="43" t="s">
+      <c r="C18" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="43" t="s">
+      <c r="D18" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="44" t="s">
+      <c r="E18" s="38" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D19" s="3">
         <v>43326</v>
       </c>
-      <c r="E19" s="38">
+      <c r="E19" s="32">
         <v>6600</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="31" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D20" s="3">
         <v>43509</v>
       </c>
-      <c r="E20" s="38">
+      <c r="E20" s="32">
         <v>4300</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="37" t="s">
+      <c r="B21" s="31" t="s">
         <v>14</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D21" s="3">
         <v>44067</v>
       </c>
-      <c r="E21" s="38">
+      <c r="E21" s="32">
         <v>8800</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="40">
+      <c r="C22" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="34">
         <v>44371</v>
       </c>
-      <c r="E22" s="41">
+      <c r="E22" s="35">
         <v>2400</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="B3:H10">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>$H3&gt;=5000</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2532,28 +2402,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AD36"/>
+  <dimension ref="B1:V21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14" style="1" customWidth="1"/>
+    <col min="14" max="14" width="7.375" style="1" customWidth="1"/>
     <col min="15" max="16" width="16.125" style="1" customWidth="1"/>
     <col min="17" max="17" width="11.375" style="1" customWidth="1"/>
     <col min="18" max="18" width="14" style="1" customWidth="1"/>
@@ -2565,16 +2435,39 @@
     <col min="31" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:30" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B2"/>
-      <c r="C2" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
+    <row r="1" spans="2:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="I1"/>
+      <c r="J1"/>
+      <c r="K1"/>
+      <c r="L1"/>
+      <c r="M1"/>
+      <c r="N1"/>
+      <c r="O1"/>
+      <c r="P1"/>
+      <c r="Q1"/>
+      <c r="R1"/>
+      <c r="S1"/>
+      <c r="T1"/>
+      <c r="U1"/>
+      <c r="V1"/>
+    </row>
+    <row r="2" spans="2:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B2" s="47"/>
+      <c r="C2" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
       <c r="I2"/>
       <c r="J2"/>
       <c r="K2"/>
@@ -2589,198 +2482,132 @@
       <c r="T2"/>
       <c r="U2"/>
       <c r="V2"/>
-      <c r="W2"/>
-      <c r="X2"/>
-      <c r="Y2"/>
-      <c r="Z2"/>
-      <c r="AA2"/>
-      <c r="AB2"/>
-      <c r="AC2"/>
-      <c r="AD2"/>
-    </row>
-    <row r="3" spans="2:30" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B3"/>
-      <c r="C3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3" t="s">
-        <v>63</v>
-      </c>
-      <c r="J3" t="s">
-        <v>38</v>
-      </c>
+    </row>
+    <row r="3" spans="2:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B3" s="47"/>
+      <c r="C3" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="49"/>
+      <c r="E3" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="49"/>
+      <c r="G3" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="49"/>
+      <c r="I3"/>
+      <c r="J3"/>
       <c r="K3"/>
       <c r="L3"/>
       <c r="M3"/>
       <c r="N3"/>
       <c r="O3"/>
-      <c r="P3" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>36</v>
-      </c>
+      <c r="P3"/>
+      <c r="Q3"/>
       <c r="R3"/>
       <c r="S3"/>
       <c r="T3"/>
-      <c r="U3" t="s">
-        <v>65</v>
-      </c>
+      <c r="U3"/>
       <c r="V3"/>
-      <c r="W3"/>
-      <c r="X3"/>
-      <c r="Y3"/>
-      <c r="Z3"/>
-      <c r="AA3"/>
-      <c r="AB3"/>
-      <c r="AC3"/>
-      <c r="AD3" t="s">
+    </row>
+    <row r="4" spans="2:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B4" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="51" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="4" spans="2:30" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B4"/>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" t="s">
-        <v>62</v>
+      <c r="E4" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="51" t="s">
+        <v>53</v>
       </c>
       <c r="I4"/>
-      <c r="J4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" t="s">
-        <v>55</v>
-      </c>
-      <c r="L4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" t="s">
-        <v>57</v>
-      </c>
-      <c r="N4" t="s">
-        <v>28</v>
-      </c>
-      <c r="O4" t="s">
-        <v>61</v>
-      </c>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
       <c r="P4"/>
-      <c r="Q4" t="s">
-        <v>20</v>
-      </c>
-      <c r="R4" t="s">
-        <v>58</v>
-      </c>
-      <c r="S4" t="s">
-        <v>30</v>
-      </c>
-      <c r="T4" t="s">
-        <v>60</v>
-      </c>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
       <c r="U4"/>
       <c r="V4"/>
-      <c r="W4"/>
-      <c r="X4"/>
-      <c r="Y4"/>
-      <c r="Z4"/>
-      <c r="AA4"/>
-      <c r="AB4"/>
-      <c r="AC4"/>
-      <c r="AD4"/>
-    </row>
-    <row r="5" spans="2:30" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B5" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="47">
-        <v>2400</v>
-      </c>
-      <c r="D5"/>
-      <c r="E5" s="47">
-        <v>4300</v>
-      </c>
-      <c r="F5"/>
-      <c r="G5" s="47">
-        <v>8800</v>
-      </c>
-      <c r="H5"/>
+    </row>
+    <row r="5" spans="2:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B5" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="40">
+        <v>2</v>
+      </c>
+      <c r="D5" s="40">
+        <v>6200</v>
+      </c>
+      <c r="E5" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="40" t="s">
+        <v>51</v>
+      </c>
       <c r="I5"/>
-      <c r="J5" s="47">
-        <v>4000</v>
-      </c>
+      <c r="J5"/>
       <c r="K5"/>
-      <c r="L5" s="47">
-        <v>5000</v>
-      </c>
+      <c r="L5"/>
       <c r="M5"/>
-      <c r="N5" s="47">
-        <v>2500</v>
-      </c>
+      <c r="N5"/>
       <c r="O5"/>
       <c r="P5"/>
-      <c r="Q5" s="47">
-        <v>6600</v>
-      </c>
+      <c r="Q5"/>
       <c r="R5"/>
-      <c r="S5" s="47">
-        <v>5800</v>
-      </c>
+      <c r="S5"/>
       <c r="T5"/>
       <c r="U5"/>
-      <c r="V5" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="W5" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="X5" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y5" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z5" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA5" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB5" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC5" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD5"/>
-    </row>
-    <row r="6" spans="2:30" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B6" s="46">
-        <v>43326</v>
-      </c>
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
+      <c r="V5"/>
+    </row>
+    <row r="6" spans="2:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B6" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="40">
+        <v>1</v>
+      </c>
+      <c r="F6" s="40">
+        <v>5000</v>
+      </c>
+      <c r="G6" s="40">
+        <v>1</v>
+      </c>
+      <c r="H6" s="40">
+        <v>4300</v>
+      </c>
       <c r="I6"/>
       <c r="J6"/>
       <c r="K6"/>
@@ -2795,25 +2622,29 @@
       <c r="T6"/>
       <c r="U6"/>
       <c r="V6"/>
-      <c r="W6"/>
-      <c r="X6"/>
-      <c r="Y6"/>
-      <c r="Z6"/>
-      <c r="AA6"/>
-      <c r="AB6"/>
-      <c r="AC6"/>
-      <c r="AD6"/>
-    </row>
-    <row r="7" spans="2:30" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B7" s="46">
-        <v>43388</v>
-      </c>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
+    </row>
+    <row r="7" spans="2:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B7" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="40">
+        <v>1</v>
+      </c>
+      <c r="F7" s="40">
+        <v>2500</v>
+      </c>
+      <c r="G7" s="40">
+        <v>1</v>
+      </c>
+      <c r="H7" s="40">
+        <v>8800</v>
+      </c>
       <c r="I7"/>
       <c r="J7"/>
       <c r="K7"/>
@@ -2828,25 +2659,29 @@
       <c r="T7"/>
       <c r="U7"/>
       <c r="V7"/>
-      <c r="W7"/>
-      <c r="X7"/>
-      <c r="Y7"/>
-      <c r="Z7"/>
-      <c r="AA7"/>
-      <c r="AB7"/>
-      <c r="AC7"/>
-      <c r="AD7"/>
-    </row>
-    <row r="8" spans="2:30" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B8" s="46">
-        <v>43509</v>
-      </c>
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8"/>
+    </row>
+    <row r="8" spans="2:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B8" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="40">
+        <v>1</v>
+      </c>
+      <c r="F8" s="40">
+        <v>4000</v>
+      </c>
+      <c r="G8" s="40">
+        <v>1</v>
+      </c>
+      <c r="H8" s="40">
+        <v>2400</v>
+      </c>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -2861,25 +2696,29 @@
       <c r="T8"/>
       <c r="U8"/>
       <c r="V8"/>
-      <c r="W8"/>
-      <c r="X8"/>
-      <c r="Y8"/>
-      <c r="Z8"/>
-      <c r="AA8"/>
-      <c r="AB8"/>
-      <c r="AC8"/>
-      <c r="AD8"/>
-    </row>
-    <row r="9" spans="2:30" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B9" s="46">
-        <v>43655</v>
-      </c>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9"/>
+    </row>
+    <row r="9" spans="2:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B9" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="40">
+        <v>2</v>
+      </c>
+      <c r="D9" s="40">
+        <v>6200</v>
+      </c>
+      <c r="E9" s="40">
+        <v>3</v>
+      </c>
+      <c r="F9" s="40">
+        <v>3833.3333333333335</v>
+      </c>
+      <c r="G9" s="40">
+        <v>3</v>
+      </c>
+      <c r="H9" s="40">
+        <v>5166.666666666667</v>
+      </c>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
@@ -2894,19 +2733,9 @@
       <c r="T9"/>
       <c r="U9"/>
       <c r="V9"/>
-      <c r="W9"/>
-      <c r="X9"/>
-      <c r="Y9"/>
-      <c r="Z9"/>
-      <c r="AA9"/>
-      <c r="AB9"/>
-      <c r="AC9"/>
-      <c r="AD9"/>
-    </row>
-    <row r="10" spans="2:30" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B10" s="46">
-        <v>43983</v>
-      </c>
+    </row>
+    <row r="10" spans="2:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B10"/>
       <c r="C10"/>
       <c r="D10"/>
       <c r="E10"/>
@@ -2927,19 +2756,9 @@
       <c r="T10"/>
       <c r="U10"/>
       <c r="V10"/>
-      <c r="W10"/>
-      <c r="X10"/>
-      <c r="Y10"/>
-      <c r="Z10"/>
-      <c r="AA10"/>
-      <c r="AB10"/>
-      <c r="AC10"/>
-      <c r="AD10"/>
-    </row>
-    <row r="11" spans="2:30" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B11" s="46">
-        <v>44067</v>
-      </c>
+    </row>
+    <row r="11" spans="2:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B11"/>
       <c r="C11"/>
       <c r="D11"/>
       <c r="E11"/>
@@ -2960,19 +2779,9 @@
       <c r="T11"/>
       <c r="U11"/>
       <c r="V11"/>
-      <c r="W11"/>
-      <c r="X11"/>
-      <c r="Y11"/>
-      <c r="Z11"/>
-      <c r="AA11"/>
-      <c r="AB11"/>
-      <c r="AC11"/>
-      <c r="AD11"/>
-    </row>
-    <row r="12" spans="2:30" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B12" s="46">
-        <v>44371</v>
-      </c>
+    </row>
+    <row r="12" spans="2:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B12"/>
       <c r="C12"/>
       <c r="D12"/>
       <c r="E12"/>
@@ -2993,19 +2802,9 @@
       <c r="T12"/>
       <c r="U12"/>
       <c r="V12"/>
-      <c r="W12"/>
-      <c r="X12"/>
-      <c r="Y12"/>
-      <c r="Z12"/>
-      <c r="AA12"/>
-      <c r="AB12"/>
-      <c r="AC12"/>
-      <c r="AD12"/>
-    </row>
-    <row r="13" spans="2:30" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B13" s="46">
-        <v>44503</v>
-      </c>
+    </row>
+    <row r="13" spans="2:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B13"/>
       <c r="C13"/>
       <c r="D13"/>
       <c r="E13"/>
@@ -3026,19 +2825,9 @@
       <c r="T13"/>
       <c r="U13"/>
       <c r="V13"/>
-      <c r="W13"/>
-      <c r="X13"/>
-      <c r="Y13"/>
-      <c r="Z13"/>
-      <c r="AA13"/>
-      <c r="AB13"/>
-      <c r="AC13"/>
-      <c r="AD13"/>
-    </row>
-    <row r="14" spans="2:30" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B14" s="46" t="s">
-        <v>53</v>
-      </c>
+    </row>
+    <row r="14" spans="2:22" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
       <c r="E14"/>
@@ -3059,410 +2848,62 @@
       <c r="T14"/>
       <c r="U14"/>
       <c r="V14"/>
-      <c r="W14"/>
-      <c r="X14"/>
-      <c r="Y14"/>
-      <c r="Z14"/>
-      <c r="AA14"/>
-      <c r="AB14"/>
-      <c r="AC14"/>
-      <c r="AD14"/>
-    </row>
-    <row r="15" spans="2:30" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="2:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15"/>
       <c r="E15"/>
       <c r="F15"/>
-      <c r="G15"/>
-      <c r="H15"/>
-      <c r="I15"/>
-      <c r="J15"/>
-      <c r="K15"/>
-      <c r="L15"/>
-      <c r="M15"/>
-      <c r="N15"/>
-      <c r="O15"/>
-      <c r="P15"/>
-      <c r="Q15"/>
-      <c r="R15"/>
-      <c r="S15"/>
-      <c r="T15"/>
-      <c r="U15"/>
-      <c r="V15"/>
-    </row>
-    <row r="16" spans="2:30" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="2:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16"/>
       <c r="E16"/>
       <c r="F16"/>
-      <c r="G16"/>
-      <c r="H16"/>
-      <c r="I16"/>
-      <c r="J16"/>
-      <c r="K16"/>
-      <c r="L16"/>
-      <c r="M16"/>
-      <c r="N16"/>
-      <c r="O16"/>
-      <c r="P16"/>
-      <c r="Q16"/>
-      <c r="R16"/>
-      <c r="S16"/>
-      <c r="T16"/>
-      <c r="U16"/>
-      <c r="V16"/>
-    </row>
-    <row r="17" spans="2:22" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
       <c r="E17"/>
       <c r="F17"/>
-      <c r="G17"/>
-      <c r="H17"/>
-      <c r="I17"/>
-      <c r="J17"/>
-      <c r="K17"/>
-      <c r="L17"/>
-      <c r="M17"/>
-      <c r="N17"/>
-      <c r="O17"/>
-      <c r="P17"/>
-      <c r="Q17"/>
-      <c r="R17"/>
-      <c r="S17"/>
-      <c r="T17"/>
-      <c r="U17"/>
-      <c r="V17"/>
-    </row>
-    <row r="18" spans="2:22" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
       <c r="E18"/>
       <c r="F18"/>
-      <c r="G18"/>
-      <c r="H18"/>
-      <c r="I18"/>
-      <c r="J18"/>
-      <c r="K18"/>
-      <c r="L18"/>
-      <c r="M18"/>
-      <c r="N18"/>
-      <c r="O18"/>
-      <c r="P18"/>
-      <c r="Q18"/>
-      <c r="R18"/>
-      <c r="S18"/>
-      <c r="T18"/>
-      <c r="U18"/>
-      <c r="V18"/>
-    </row>
-    <row r="19" spans="2:22" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19"/>
       <c r="E19"/>
       <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19"/>
-      <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19"/>
-      <c r="M19"/>
-      <c r="N19"/>
-      <c r="O19"/>
-      <c r="P19"/>
-      <c r="Q19"/>
-      <c r="R19"/>
-      <c r="S19"/>
-      <c r="T19"/>
-      <c r="U19"/>
-      <c r="V19"/>
-    </row>
-    <row r="20" spans="2:22" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20"/>
       <c r="E20"/>
       <c r="F20"/>
-      <c r="G20"/>
-      <c r="H20"/>
-      <c r="I20"/>
-      <c r="J20"/>
-      <c r="K20"/>
-      <c r="L20"/>
-      <c r="M20"/>
-      <c r="N20"/>
-      <c r="O20"/>
-      <c r="P20"/>
-      <c r="Q20"/>
-      <c r="R20"/>
-      <c r="S20"/>
-      <c r="T20"/>
-      <c r="U20"/>
-      <c r="V20"/>
-    </row>
-    <row r="21" spans="2:22" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
       <c r="E21"/>
       <c r="F21"/>
-      <c r="G21"/>
-      <c r="H21"/>
-      <c r="I21"/>
-      <c r="J21"/>
-      <c r="K21"/>
-      <c r="L21"/>
-      <c r="M21"/>
-      <c r="N21"/>
-      <c r="O21"/>
-      <c r="P21"/>
-      <c r="Q21"/>
-      <c r="R21"/>
-      <c r="S21"/>
-      <c r="T21"/>
-      <c r="U21"/>
-      <c r="V21"/>
-    </row>
-    <row r="22" spans="2:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22"/>
-      <c r="I22"/>
-      <c r="J22"/>
-      <c r="K22"/>
-      <c r="L22"/>
-      <c r="M22"/>
-      <c r="N22"/>
-      <c r="O22"/>
-      <c r="P22"/>
-      <c r="Q22"/>
-      <c r="R22"/>
-      <c r="S22"/>
-      <c r="T22"/>
-      <c r="U22"/>
-      <c r="V22"/>
-    </row>
-    <row r="23" spans="2:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
-      <c r="G23"/>
-      <c r="H23"/>
-      <c r="I23"/>
-      <c r="J23"/>
-      <c r="K23"/>
-      <c r="L23"/>
-      <c r="M23"/>
-      <c r="N23"/>
-      <c r="O23"/>
-      <c r="P23"/>
-      <c r="Q23"/>
-      <c r="R23"/>
-      <c r="S23"/>
-      <c r="T23"/>
-      <c r="U23"/>
-      <c r="V23"/>
-    </row>
-    <row r="24" spans="2:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B24"/>
-      <c r="C24"/>
-      <c r="D24"/>
-      <c r="E24"/>
-      <c r="F24"/>
-      <c r="G24"/>
-      <c r="H24"/>
-      <c r="I24"/>
-      <c r="J24"/>
-      <c r="K24"/>
-      <c r="L24"/>
-      <c r="M24"/>
-      <c r="N24"/>
-      <c r="O24"/>
-      <c r="P24"/>
-      <c r="Q24"/>
-      <c r="R24"/>
-      <c r="S24"/>
-      <c r="T24"/>
-      <c r="U24"/>
-      <c r="V24"/>
-    </row>
-    <row r="25" spans="2:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B25"/>
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25"/>
-      <c r="G25"/>
-      <c r="H25"/>
-      <c r="I25"/>
-      <c r="J25"/>
-      <c r="K25"/>
-      <c r="L25"/>
-      <c r="M25"/>
-      <c r="N25"/>
-      <c r="O25"/>
-      <c r="P25"/>
-      <c r="Q25"/>
-      <c r="R25"/>
-      <c r="S25"/>
-      <c r="T25"/>
-      <c r="U25"/>
-      <c r="V25"/>
-    </row>
-    <row r="26" spans="2:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B26"/>
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26"/>
-      <c r="G26"/>
-      <c r="H26"/>
-      <c r="I26"/>
-      <c r="J26"/>
-      <c r="K26"/>
-      <c r="L26"/>
-      <c r="M26"/>
-      <c r="N26"/>
-      <c r="O26"/>
-      <c r="P26"/>
-      <c r="Q26"/>
-      <c r="R26"/>
-      <c r="S26"/>
-      <c r="T26"/>
-      <c r="U26"/>
-      <c r="V26"/>
-    </row>
-    <row r="27" spans="2:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B27"/>
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27"/>
-      <c r="F27"/>
-      <c r="G27"/>
-      <c r="H27"/>
-      <c r="I27"/>
-      <c r="J27"/>
-      <c r="K27"/>
-      <c r="L27"/>
-      <c r="M27"/>
-      <c r="N27"/>
-      <c r="O27"/>
-      <c r="P27"/>
-      <c r="Q27"/>
-      <c r="R27"/>
-      <c r="S27"/>
-      <c r="T27"/>
-      <c r="U27"/>
-      <c r="V27"/>
-    </row>
-    <row r="28" spans="2:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
-      <c r="G28"/>
-      <c r="H28"/>
-      <c r="I28"/>
-      <c r="J28"/>
-      <c r="K28"/>
-      <c r="L28"/>
-      <c r="M28"/>
-      <c r="N28"/>
-      <c r="O28"/>
-      <c r="P28"/>
-      <c r="Q28"/>
-      <c r="R28"/>
-      <c r="S28"/>
-      <c r="T28"/>
-      <c r="U28"/>
-      <c r="V28"/>
-    </row>
-    <row r="29" spans="2:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B29"/>
-      <c r="C29"/>
-      <c r="D29"/>
-      <c r="E29"/>
-      <c r="F29"/>
-      <c r="G29"/>
-      <c r="H29"/>
-      <c r="I29"/>
-      <c r="J29"/>
-      <c r="K29"/>
-      <c r="L29"/>
-      <c r="M29"/>
-      <c r="N29"/>
-      <c r="O29"/>
-      <c r="P29"/>
-      <c r="Q29"/>
-      <c r="R29"/>
-      <c r="S29"/>
-      <c r="T29"/>
-      <c r="U29"/>
-      <c r="V29"/>
-    </row>
-    <row r="30" spans="2:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B30"/>
-      <c r="C30"/>
-      <c r="D30"/>
-      <c r="E30"/>
-      <c r="F30"/>
-    </row>
-    <row r="31" spans="2:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B31"/>
-      <c r="C31"/>
-      <c r="D31"/>
-      <c r="E31"/>
-      <c r="F31"/>
-    </row>
-    <row r="32" spans="2:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B32"/>
-      <c r="C32"/>
-      <c r="D32"/>
-      <c r="E32"/>
-      <c r="F32"/>
-    </row>
-    <row r="33" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B33"/>
-      <c r="C33"/>
-      <c r="D33"/>
-      <c r="E33"/>
-      <c r="F33"/>
-    </row>
-    <row r="34" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B34"/>
-      <c r="C34"/>
-      <c r="D34"/>
-      <c r="E34"/>
-      <c r="F34"/>
-    </row>
-    <row r="35" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B35"/>
-      <c r="C35"/>
-      <c r="D35"/>
-      <c r="E35"/>
-      <c r="F35"/>
-    </row>
-    <row r="36" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B36"/>
-      <c r="C36"/>
-      <c r="D36"/>
-      <c r="E36"/>
-      <c r="F36"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/현서 엑셀.xlsx
+++ b/현서 엑셀.xlsx
@@ -10,6 +10,7 @@
     <sheet name="제1작업" sheetId="1" r:id="rId1"/>
     <sheet name="제2작업" sheetId="2" r:id="rId2"/>
     <sheet name="제3작업" sheetId="3" r:id="rId3"/>
+    <sheet name="제4작업" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">제2작업!$B$2:$H$10</definedName>
@@ -19,7 +20,7 @@
   </definedNames>
   <calcPr calcId="144525"/>
   <pivotCaches>
-    <pivotCache cacheId="11" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -764,6 +765,15 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -783,19 +793,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -805,20 +806,6 @@
   <dxfs count="9">
     <dxf>
       <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B0F0"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -1003,6 +990,20 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1011,6 +1012,385 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="2000"/>
+              <a:t>시뮬레이션 및 롤플레잉 게임 현황</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" sz="2000"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>판매금액(단위:원)</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(제1작업!$C$5,제1작업!$C$7,제1작업!$C$8,제1작업!$C$9,제1작업!$C$10,제1작업!$C$12)</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>놀이공원이야기</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>뚜비의도넛가게</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>보트경주</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>피그모험</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>톰의브리지</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>드래곤키우기</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(제1작업!$H$5,제1작업!$H$7,제1작업!$H$8,제1작업!$H$9,제1작업!$H$10,제1작업!$H$12)</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="-25"/>
+        <c:axId val="40407552"/>
+        <c:axId val="131590976"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>제1작업!$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>용량</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="10"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout/>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(제1작업!$C$5,제1작업!$C$7,제1작업!$C$8,제1작업!$C$9,제1작업!$C$10,제1작업!$C$12)</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>놀이공원이야기</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>뚜비의도넛가게</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>보트경주</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>피그모험</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>톰의브리지</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>드래곤키우기</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(제1작업!$G$5,제1작업!$G$7,제1작업!$G$8,제1작업!$G$9,제1작업!$G$10,제1작업!$G$12)</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0"MB"</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="216705024"/>
+        <c:axId val="138125312"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="40407552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="131590976"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="131590976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="40407552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="138125312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="150"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="#,##0&quot;MB&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="216705024"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="30"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="216705024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="138125312"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:blipFill>
+      <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+      <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
+    </a:blipFill>
+    <a:ln>
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100">
+          <a:latin typeface="굴림" pitchFamily="50" charset="-127"/>
+          <a:ea typeface="굴림" pitchFamily="50" charset="-127"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:userShapes r:id="rId2"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="94" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1144,6 +1524,107 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="12686489" cy="8288777"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.80911</cdr:x>
+      <cdr:y>0.11736</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.91294</cdr:x>
+      <cdr:y>0.22005</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="모서리가 둥근 사각형 설명선 1"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="10264708" y="972767"/>
+          <a:ext cx="1317287" cy="851170"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -107756"/>
+            <a:gd name="adj2" fmla="val -1785"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="12700"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" anchor="ctr"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>최대 용량</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1293,7 +1774,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블1" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" missingCaption="**" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" mergeItem="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" colHeaderCaption="구분">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" missingCaption="**" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" mergeItem="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" colHeaderCaption="구분">
   <location ref="B2:H9" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -1399,13 +1880,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="B18:E22" totalsRowShown="0" headerRowDxfId="8" tableBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="B18:E22" totalsRowShown="0" headerRowDxfId="6" tableBorderDxfId="5">
   <autoFilter ref="B18:E22"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="게임코드" dataDxfId="6"/>
-    <tableColumn id="2" name="구분" dataDxfId="5"/>
-    <tableColumn id="3" name="출시일" dataDxfId="4"/>
-    <tableColumn id="4" name="판매금액_x000a_(단위:원)" dataDxfId="3" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="1" name="게임코드" dataDxfId="4"/>
+    <tableColumn id="2" name="구분" dataDxfId="3"/>
+    <tableColumn id="3" name="출시일" dataDxfId="2"/>
+    <tableColumn id="4" name="판매금액_x000a_(단위:원)" dataDxfId="1" dataCellStyle="쉼표 [0]"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1701,7 +2182,7 @@
   <dimension ref="B1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1773,10 +2254,7 @@
       <c r="H5" s="14">
         <v>4000</v>
       </c>
-      <c r="I5" s="14" t="str">
-        <f>CHOOSE(RIGHT(B5,1),"인기작","할인중","가족용")</f>
-        <v>인기작</v>
-      </c>
+      <c r="I5" s="14"/>
       <c r="J5" s="15" t="str">
         <f>_xlfn.RANK.EQ(H5,$H$5:$H$12,)&amp;"위"</f>
         <v>6위</v>
@@ -1804,12 +2282,9 @@
       <c r="H6" s="4">
         <v>6600</v>
       </c>
-      <c r="I6" s="4" t="str">
-        <f t="shared" ref="I6:I12" si="0">CHOOSE(RIGHT(B6,1),"인기작","할인중","가족용")</f>
-        <v>인기작</v>
-      </c>
+      <c r="I6" s="4"/>
       <c r="J6" s="8" t="str">
-        <f t="shared" ref="J6:J12" si="1">_xlfn.RANK.EQ(H6,$H$5:$H$12,)&amp;"위"</f>
+        <f t="shared" ref="J6:J12" si="0">_xlfn.RANK.EQ(H6,$H$5:$H$12,)&amp;"위"</f>
         <v>2위</v>
       </c>
     </row>
@@ -1835,12 +2310,9 @@
       <c r="H7" s="4">
         <v>5000</v>
       </c>
-      <c r="I7" s="4" t="str">
+      <c r="I7" s="4"/>
+      <c r="J7" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>가족용</v>
-      </c>
-      <c r="J7" s="8" t="str">
-        <f t="shared" si="1"/>
         <v>4위</v>
       </c>
     </row>
@@ -1866,12 +2338,9 @@
       <c r="H8" s="4">
         <v>4300</v>
       </c>
-      <c r="I8" s="4" t="str">
+      <c r="I8" s="4"/>
+      <c r="J8" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>가족용</v>
-      </c>
-      <c r="J8" s="8" t="str">
-        <f t="shared" si="1"/>
         <v>5위</v>
       </c>
     </row>
@@ -1897,12 +2366,9 @@
       <c r="H9" s="4">
         <v>8800</v>
       </c>
-      <c r="I9" s="4" t="str">
+      <c r="I9" s="4"/>
+      <c r="J9" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>할인중</v>
-      </c>
-      <c r="J9" s="8" t="str">
-        <f t="shared" si="1"/>
         <v>1위</v>
       </c>
     </row>
@@ -1928,12 +2394,9 @@
       <c r="H10" s="4">
         <v>2500</v>
       </c>
-      <c r="I10" s="4" t="str">
+      <c r="I10" s="4"/>
+      <c r="J10" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>할인중</v>
-      </c>
-      <c r="J10" s="8" t="str">
-        <f t="shared" si="1"/>
         <v>7위</v>
       </c>
     </row>
@@ -1959,12 +2422,9 @@
       <c r="H11" s="4">
         <v>5800</v>
       </c>
-      <c r="I11" s="4" t="str">
+      <c r="I11" s="4"/>
+      <c r="J11" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>인기작</v>
-      </c>
-      <c r="J11" s="8" t="str">
-        <f t="shared" si="1"/>
         <v>3위</v>
       </c>
     </row>
@@ -1990,47 +2450,44 @@
       <c r="H12" s="18">
         <v>2400</v>
       </c>
-      <c r="I12" s="18" t="str">
+      <c r="I12" s="18"/>
+      <c r="J12" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>인기작</v>
-      </c>
-      <c r="J12" s="19" t="str">
-        <f t="shared" si="1"/>
         <v>8위</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
       <c r="E13" s="12">
         <f>COUNTIF(구분,"롤플레잉")</f>
         <v>3</v>
       </c>
-      <c r="F13" s="45"/>
-      <c r="G13" s="42" t="s">
+      <c r="F13" s="48"/>
+      <c r="G13" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
       <c r="J13" s="30">
         <f>MAX(G5:G12)</f>
         <v>123</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
       <c r="E14" s="9">
-        <f>ROUND(DAVERAGE(B4:H12,H4,D4:D5),-1)</f>
-        <v>3830</v>
-      </c>
-      <c r="F14" s="46"/>
+        <f>ROUND(DAVERAGE(B4:H12,H4,D4:D5),-2)</f>
+        <v>3800</v>
+      </c>
+      <c r="F14" s="49"/>
       <c r="G14" s="25" t="s">
         <v>0</v>
       </c>
@@ -2054,7 +2511,7 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="B5:J12">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>$H5&gt;=5000</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2389,7 +2846,7 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="B3:H10">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>$H3&gt;=5000</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2459,15 +2916,15 @@
       <c r="V1"/>
     </row>
     <row r="2" spans="2:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B2" s="47"/>
-      <c r="C2" s="48" t="s">
+      <c r="B2" s="41"/>
+      <c r="C2" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
       <c r="I2"/>
       <c r="J2"/>
       <c r="K2"/>
@@ -2484,19 +2941,19 @@
       <c r="V2"/>
     </row>
     <row r="3" spans="2:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B3" s="47"/>
+      <c r="B3" s="41"/>
       <c r="C3" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="49"/>
+      <c r="D3" s="51"/>
       <c r="E3" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="49"/>
+      <c r="F3" s="51"/>
       <c r="G3" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="49"/>
+      <c r="H3" s="51"/>
       <c r="I3"/>
       <c r="J3"/>
       <c r="K3"/>
@@ -2513,25 +2970,25 @@
       <c r="V3"/>
     </row>
     <row r="4" spans="2:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="51" t="s">
+      <c r="E4" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="G4" s="51" t="s">
+      <c r="G4" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="H4" s="51" t="s">
+      <c r="H4" s="43" t="s">
         <v>53</v>
       </c>
       <c r="I4"/>
